--- a/src/main/resources/ch/hug/service/drools/Rules.xlsx
+++ b/src/main/resources/ch/hug/service/drools/Rules.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\drools-test\src\main\resources\ch\hug\service\drools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\workspace\drools-test\src\main\resources\ch\hug\service\drools\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F82745C-6F19-4314-B277-A399C01DA4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25770" windowHeight="8085"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>RuleSet</t>
   </si>
@@ -48,13 +49,97 @@
   </si>
   <si>
     <t>ch.hug.service.drools.DiscountRequest</t>
+  </si>
+  <si>
+    <t>RuleTable Discount</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>$request:DiscountRequest</t>
+  </si>
+  <si>
+    <t>$request.getAge() &lt; $param</t>
+  </si>
+  <si>
+    <t>$request.getAge() &gt; $param</t>
+  </si>
+  <si>
+    <t>$request.getClientType() == $param</t>
+  </si>
+  <si>
+    <t>$request.getAmount()  &gt; ($param)</t>
+  </si>
+  <si>
+    <t>$request.setDiscountValue($param);</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Client VIP</t>
+  </si>
+  <si>
+    <t>Montant</t>
+  </si>
+  <si>
+    <t>REDUCTION</t>
+  </si>
+  <si>
+    <t>NORMAL &lt; 65a &gt; 500m</t>
+  </si>
+  <si>
+    <t>"NORMAL"</t>
+  </si>
+  <si>
+    <t>NORMAL &lt; 65a &gt;2000m</t>
+  </si>
+  <si>
+    <t>NORMAL &lt; 65a &gt; 5000m</t>
+  </si>
+  <si>
+    <t>VIP &lt; 65a &gt; 500m</t>
+  </si>
+  <si>
+    <t>"VIP"</t>
+  </si>
+  <si>
+    <t>VIP &lt; 65a &gt;2000m</t>
+  </si>
+  <si>
+    <t>VIP &lt; 65a &gt; 5000m</t>
+  </si>
+  <si>
+    <t>NORMAL &gt; 65a &gt; 500m</t>
+  </si>
+  <si>
+    <t>NORMAL &gt; 65a &gt;2000m</t>
+  </si>
+  <si>
+    <t>NORMAL &gt; 65a &gt; 5000m</t>
+  </si>
+  <si>
+    <t>VIP &gt; 65a &gt; 500m</t>
+  </si>
+  <si>
+    <t>VIP &gt; 65a &gt;2000m</t>
+  </si>
+  <si>
+    <t>VIP &gt; 65a &gt; 5000m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +152,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,9 +182,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,25 +471,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" customWidth="1"/>
-    <col min="4" max="4" width="75.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" customWidth="1"/>
-    <col min="6" max="6" width="59.28515625" customWidth="1"/>
-    <col min="7" max="7" width="58.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" customWidth="1"/>
+    <col min="3" max="3" width="82.7265625" customWidth="1"/>
+    <col min="4" max="4" width="75.54296875" customWidth="1"/>
+    <col min="5" max="5" width="38.1796875" customWidth="1"/>
+    <col min="6" max="6" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +499,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -411,7 +510,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -422,7 +521,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -433,71 +532,308 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1">
+        <v>500</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1">
+        <v>500</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1">
+        <v>500</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1">
+        <v>500</v>
+      </c>
+      <c r="F19" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/ch/hug/service/drools/Rules.xlsx
+++ b/src/main/resources/ch/hug/service/drools/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\workspace\drools-test\src\main\resources\ch\hug\service\drools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F82745C-6F19-4314-B277-A399C01DA4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF02554C-0C3E-4713-8291-B5E5542A0B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
   <si>
     <t>RuleSet</t>
   </si>
@@ -133,6 +133,153 @@
   </si>
   <si>
     <t>VIP &gt; 65a &gt; 5000m</t>
+  </si>
+  <si>
+    <t>$request.getDiscountCode() == $param</t>
+  </si>
+  <si>
+    <t>$request.setFullDiscountValue($param + $request.getDiscountValue());</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>TOUTE LA REDUCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NORMAL &lt; 65a &gt; 500m CODE1</t>
+  </si>
+  <si>
+    <t>"Code1"</t>
+  </si>
+  <si>
+    <t>NORMAL &lt; 65a &gt;2000m CODE1</t>
+  </si>
+  <si>
+    <t>NORMAL &lt; 65a &gt; 5000m CODE1</t>
+  </si>
+  <si>
+    <t>VIP &lt; 65a &gt; 500m CODE1</t>
+  </si>
+  <si>
+    <t>VIP &lt; 65a &gt;2000m CODE1</t>
+  </si>
+  <si>
+    <t>VIP &lt; 65a &gt; 5000m CODE1</t>
+  </si>
+  <si>
+    <t>NORMAL &gt; 65a &gt; 500m CODE1</t>
+  </si>
+  <si>
+    <t>NORMAL &gt; 65a &gt;2000m CODE1</t>
+  </si>
+  <si>
+    <t>NORMAL &gt; 65a &gt; 5000m CODE1</t>
+  </si>
+  <si>
+    <t>VIP &gt; 65a &gt; 500m CODE1</t>
+  </si>
+  <si>
+    <t>VIP &gt; 65a &gt;2000m CODE1</t>
+  </si>
+  <si>
+    <t>VIP &gt; 65a &gt; 5000m CODE1</t>
+  </si>
+  <si>
+    <t>NORMAL &lt; 65a &gt; 500m CODE2</t>
+  </si>
+  <si>
+    <t>"Code2"</t>
+  </si>
+  <si>
+    <t>NORMAL &lt; 65a &gt;2000m CODE2</t>
+  </si>
+  <si>
+    <t>NORMAL &lt; 65a &gt; 5000m CODE2</t>
+  </si>
+  <si>
+    <t>VIP &lt; 65a &gt; 500m CODE2</t>
+  </si>
+  <si>
+    <t>VIP &lt; 65a &gt;2000m CODE2</t>
+  </si>
+  <si>
+    <t>VIP &lt; 65a &gt; 5000m CODE2</t>
+  </si>
+  <si>
+    <t>NORMAL &gt; 65a &gt; 500m CODE2</t>
+  </si>
+  <si>
+    <t>NORMAL &gt; 65a &gt;2000m CODE2</t>
+  </si>
+  <si>
+    <t>NORMAL &gt; 65a &gt; 5000m CODE2</t>
+  </si>
+  <si>
+    <t>VIP &gt; 65a &gt; 500m CODE2</t>
+  </si>
+  <si>
+    <t>VIP &gt; 65a &gt;2000m CODE2</t>
+  </si>
+  <si>
+    <t>VIP &gt; 65a &gt; 5000m CODE2</t>
+  </si>
+  <si>
+    <t>NORMAL &lt; 65a &gt; 500m CODE3</t>
+  </si>
+  <si>
+    <t>"Code3"</t>
+  </si>
+  <si>
+    <t>NORMAL &lt; 65a &gt;2000m CODE3</t>
+  </si>
+  <si>
+    <t>NORMAL &lt; 65a &gt; 5000m CODE3</t>
+  </si>
+  <si>
+    <t>VIP &lt; 65a &gt; 500m CODE3</t>
+  </si>
+  <si>
+    <t>VIP &lt; 65a &gt;2000m CODE3</t>
+  </si>
+  <si>
+    <t>VIP &lt; 65a &gt; 5000m CODE3</t>
+  </si>
+  <si>
+    <t>NORMAL &gt; 65a &gt; 500m CODE3</t>
+  </si>
+  <si>
+    <t>NORMAL &gt; 65a &gt;2000m CODE3</t>
+  </si>
+  <si>
+    <t>NORMAL &gt; 65a &gt; 5000m CODE3</t>
+  </si>
+  <si>
+    <t>VIP &gt; 65a &gt; 500m CODE3</t>
+  </si>
+  <si>
+    <t>VIP &gt; 65a &gt;2000m CODE3</t>
+  </si>
+  <si>
+    <t>VIP &gt; 65a &gt; 5000m CODE3</t>
+  </si>
+  <si>
+    <t>Has Only Code1</t>
+  </si>
+  <si>
+    <t>Has Only Code2</t>
+  </si>
+  <si>
+    <t>Has Only Code3</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>$request.setMaximumFullDiscountValue();</t>
   </si>
 </sst>
 </file>
@@ -185,13 +332,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,23 +619,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" customWidth="1"/>
-    <col min="3" max="3" width="82.7265625" customWidth="1"/>
-    <col min="4" max="4" width="75.54296875" customWidth="1"/>
-    <col min="5" max="5" width="38.1796875" customWidth="1"/>
-    <col min="6" max="6" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="2" max="3" width="53.26953125" customWidth="1"/>
+    <col min="4" max="4" width="82.7265625" customWidth="1"/>
+    <col min="5" max="5" width="74.453125" customWidth="1"/>
+    <col min="6" max="6" width="75.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.1796875" customWidth="1"/>
+    <col min="8" max="8" width="66.1796875" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,341 +647,1332 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8"/>
-      <c r="B8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1">
-        <v>65</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="B11" s="1">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1">
         <v>500</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="B12" s="1">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1">
         <v>2000</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G12" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1">
-        <v>65</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="B13" s="1">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1">
         <v>5000</v>
       </c>
-      <c r="F12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="G13" s="1">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1">
-        <v>65</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="B14" s="1">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1">
         <v>500</v>
       </c>
-      <c r="F13" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="G14" s="1">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1">
-        <v>65</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="B15" s="1">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1">
         <v>2000</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G15" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1">
-        <v>65</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="B16" s="1">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1">
         <v>5000</v>
       </c>
-      <c r="F15" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1">
-        <v>65</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1">
         <v>500</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>65</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C18" s="1">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1">
         <v>2000</v>
       </c>
-      <c r="F17" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="G18" s="1">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1">
-        <v>65</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C19" s="1">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1">
         <v>5000</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G19" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1">
-        <v>65</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C20" s="1">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1">
         <v>500</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G20" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="1">
-        <v>65</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="C21" s="1">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1">
         <v>2000</v>
       </c>
-      <c r="F20" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="G21" s="1">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="1">
-        <v>65</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="C22" s="1">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1">
         <v>5000</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G22" s="1">
         <v>35</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1">
+        <v>500</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="1">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1">
+        <v>500</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="1">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="1">
+        <v>30</v>
+      </c>
+      <c r="H28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1">
+        <v>500</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="1">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="1">
+        <v>20</v>
+      </c>
+      <c r="H30" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="1">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1">
+        <v>500</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="1">
+        <v>25</v>
+      </c>
+      <c r="H32" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1">
+        <v>65</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="1">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1">
+        <v>65</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="1">
+        <v>35</v>
+      </c>
+      <c r="H34" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="1">
+        <v>500</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="1">
+        <v>65</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="1">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="1">
+        <v>20</v>
+      </c>
+      <c r="H37" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1">
+        <v>65</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1">
+        <v>500</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="1">
+        <v>20</v>
+      </c>
+      <c r="H38" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1">
+        <v>65</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="1">
+        <v>25</v>
+      </c>
+      <c r="H39" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="1">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="1">
+        <v>30</v>
+      </c>
+      <c r="H40" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1">
+        <v>65</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="1">
+        <v>500</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="1">
+        <v>15</v>
+      </c>
+      <c r="H41" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1">
+        <v>65</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="1">
+        <v>20</v>
+      </c>
+      <c r="H42" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="1">
+        <v>65</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="1">
+        <v>25</v>
+      </c>
+      <c r="H43" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="1">
+        <v>65</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="1">
+        <v>500</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="1">
+        <v>25</v>
+      </c>
+      <c r="H44" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="1">
+        <v>65</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="1">
+        <v>30</v>
+      </c>
+      <c r="H45" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="1">
+        <v>65</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="1">
+        <v>35</v>
+      </c>
+      <c r="H46" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="1">
+        <v>65</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="1">
+        <v>500</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="1">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="1">
+        <v>65</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="1">
+        <v>15</v>
+      </c>
+      <c r="H48" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="1">
+        <v>65</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="1">
+        <v>20</v>
+      </c>
+      <c r="H49" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="1">
+        <v>65</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="1">
+        <v>500</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="1">
+        <v>20</v>
+      </c>
+      <c r="H50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1">
+        <v>65</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="1">
+        <v>25</v>
+      </c>
+      <c r="H51" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="1">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="1">
+        <v>30</v>
+      </c>
+      <c r="H52" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="1">
+        <v>65</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="1">
+        <v>500</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="1">
+        <v>15</v>
+      </c>
+      <c r="H53" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="1">
+        <v>65</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="1">
+        <v>20</v>
+      </c>
+      <c r="H54" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="1">
+        <v>65</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="1">
+        <v>25</v>
+      </c>
+      <c r="H55" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="1">
+        <v>65</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="1">
+        <v>500</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="1">
+        <v>25</v>
+      </c>
+      <c r="H56" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="1">
+        <v>65</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="1">
+        <v>30</v>
+      </c>
+      <c r="H57" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="1">
+        <v>65</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="1">
+        <v>35</v>
+      </c>
+      <c r="H58" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
